--- a/IMS/App_Data/DepartmentCategoryIndicatorMap.xlsx
+++ b/IMS/App_Data/DepartmentCategoryIndicatorMap.xlsx
@@ -14,61 +14,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>非手术科室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术科室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全院信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病理科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻醉科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血透科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超声科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重症医学科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目1名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目2名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+  <si>
+    <t>非手术科室系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入院人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病床使用率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均住院天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD型病例比例</t>
+  </si>
+  <si>
+    <t>药品费用比例</t>
+  </si>
+  <si>
+    <t>病历回收率</t>
+  </si>
+  <si>
+    <t>手术科室系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入院人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均住院天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级手术比例</t>
+  </si>
+  <si>
+    <t>总监办</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型X线设备检查阳性率</t>
+  </si>
+  <si>
+    <t>CT检查阳性率</t>
+  </si>
+  <si>
+    <t>MRI检查阳性率</t>
+  </si>
+  <si>
+    <t>质控部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医务部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放射科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +101,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -104,8 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -410,71 +441,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>8</v>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/IMS/App_Data/DepartmentCategoryIndicatorMap.xlsx
+++ b/IMS/App_Data/DepartmentCategoryIndicatorMap.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>非手术科室系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,6 +85,14 @@
   </si>
   <si>
     <t>放射科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +121,14 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,10 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -460,109 +482,275 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
